--- a/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/zlf_woniuboss4.0.xlsx
+++ b/WoniuBoss4.0/接口测试代码整理/woniuboss4.0_python/testdata/zlf_woniuboss4.0.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
-    <sheet name="就业管理" sheetId="2" r:id="rId2"/>
+    <sheet name="employment" sheetId="2" r:id="rId2"/>
     <sheet name="财务管理" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>用例编号</t>
   </si>
@@ -61,7 +61,7 @@
 contentInfo=</t>
   </si>
   <si>
-    <t>querry_success</t>
+    <t>query_success</t>
   </si>
   <si>
     <t>question_bank_query_002</t>
@@ -79,6 +79,282 @@
 contentInfo=</t>
   </si>
   <si>
+    <t>add_choice_question_001</t>
+  </si>
+  <si>
+    <t>新增单选题</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/exercise/addOption</t>
+  </si>
+  <si>
+    <t>{"dataArray":"A.sadfasd}|{B.asdfa}|{C.adsf}|{D.adsfaf","exer.id":"","exer.orientation":"02","phase":"02","exer.knowlegde_type":"50","exer.content":"Pythonskaldfj","option.options":["sadfasd","asdfa","adsf","adsfaf"],"answer":"A"}</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>add_blank_question_001</t>
+  </si>
+  <si>
+    <t>新增填空题</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/exercise/addBlank</t>
+  </si>
+  <si>
+    <t>{"exer.id":["",""],"exer.orientation":"01","phase":"01","exer.knowlegde_type":"51","exer.content":"__1__","answer":"1@@1"}</t>
+  </si>
+  <si>
+    <t>add_shot_question_001</t>
+  </si>
+  <si>
+    <t>新增简答题</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/exercise/addShort</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>{"exer.id":"","exer.orientation":"01","phase":"01","exer.knowlegde_type":"50","exer.content":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么是测试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>","answer":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>多试一试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"}</t>
+    </r>
+  </si>
+  <si>
+    <t>create_test_question_001</t>
+  </si>
+  <si>
+    <t>自动出题</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/problem</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>flag=first
+major=01
+phase=01
+paper_name=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开发第一阶段考试</t>
+    </r>
+  </si>
+  <si>
+    <t>create_success</t>
+  </si>
+  <si>
+    <t>replace_test_question_001</t>
+  </si>
+  <si>
+    <t>替换指定题目</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/problem/replace</t>
+  </si>
+  <si>
+    <t>arr: [{"para":"0-1"},{"para":"1-1"}]</t>
+  </si>
+  <si>
+    <t>replace_success</t>
+  </si>
+  <si>
+    <t>download_file_001</t>
+  </si>
+  <si>
+    <t>下载试题</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/paper/downPaper?path=upload/paper/%E5%BC%80%E5%8F%91%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E8%80%83%E8%AF%952020042606.doc&amp;name=%E5%BC%80%E5%8F%91%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E8%80%83%E8%AF%95</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>download_success</t>
+  </si>
+  <si>
+    <t>student_query_001</t>
+  </si>
+  <si>
+    <t>查询所有学生信息</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/employ/queryStuByInfo</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=
+regionId=
+result=</t>
+  </si>
+  <si>
+    <t>student_query_002</t>
+  </si>
+  <si>
+    <t>根据条件查询学生信息</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+stuName=
+stuNo=
+stuClass=
+regionId=
+result=01</t>
+  </si>
+  <si>
+    <t>add_interview_record_001</t>
+  </si>
+  <si>
+    <t>新增学员模拟面试记录</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/employ/insertMrecord?stuId=1&amp;salary=1200&amp;comm=01&amp;remark=111111</t>
+  </si>
+  <si>
+    <t>query_interview_record-001</t>
+  </si>
+  <si>
+    <t>查询学员面试记录</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/employ/queryRealRe?stuId=1</t>
+  </si>
+  <si>
+    <t>pageSize=5
+pageIndex=1
+regionId=</t>
+  </si>
+  <si>
+    <t>query_student_entryinfo_001</t>
+  </si>
+  <si>
+    <t>查询学员入职信息</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/entryinfo/queryReByInfo</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+regionId=
+stuClass=
+orientation=
+stuName=
+stuNo=</t>
+  </si>
+  <si>
+    <t>save_entry_info_001</t>
+  </si>
+  <si>
+    <t>保存入职学员入职信息</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/entryinfo/saveInfo</t>
+  </si>
+  <si>
+    <r>
+      <t>student_id=2
+ent_id=3
+job_position=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>测试工程师</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+job_time=2020-04-30
+job_salary=12
+remark=</t>
+    </r>
+  </si>
+  <si>
+    <t>query_ business_001</t>
+  </si>
+  <si>
+    <t>查询企业客户信息</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/enterprise/queryEnterprise</t>
+  </si>
+  <si>
+    <t>pageSize=10
+pageIndex=1
+entName=</t>
+  </si>
+  <si>
+    <t>modify_business_001</t>
+  </si>
+  <si>
+    <t>修改企业客户信息</t>
+  </si>
+  <si>
+    <t>http://47.96.74.65:8080/WoniuBoss4.0/enterprise/updateEnterp?ent.enterprise_id=3&amp;ent.ent_name=%E8%85%BE%E8%AE%AF&amp;ent.ent_category=%E4%BA%92%E8%81%94%E7%BD%91&amp;ent.ent_addr=203390&amp;ent.ent_header=%E5%B0%8F%E7%BB%BF&amp;ent.tel=13092993911</t>
+  </si>
+  <si>
+    <t>修改成功.</t>
+  </si>
+  <si>
     <t>login_001</t>
   </si>
   <si>
@@ -91,9 +367,6 @@
     <t>userName=WNCD000
 userPass=woniu123
 checkcode=0000</t>
-  </si>
-  <si>
-    <t>success</t>
   </si>
   <si>
     <t>login_002</t>
@@ -140,10 +413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -192,6 +465,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -201,84 +567,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,42 +588,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -350,25 +623,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,67 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,19 +779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,37 +797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,17 +832,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,8 +888,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -608,31 +907,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,17 +929,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -664,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,19 +949,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,116 +970,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +1115,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1191,19 +1467,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="76.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
@@ -1278,10 +1554,152 @@
         <v>12</v>
       </c>
     </row>
+    <row r="4" ht="102" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="9">
+        <v>200</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="116" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="9">
+        <v>200</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="81" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="9">
+        <v>200</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="90" customHeight="1" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9">
+        <v>200</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="74" customHeight="1" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="9">
+        <v>200</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="71" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9">
+        <v>200</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://47.96.74.65:8080/WoniuBoss4.0/exercise/queryExerByInfo" tooltip="http://47.96.74.65:8080/WoniuBoss4.0/exercise/queryExerByInfo"/>
     <hyperlink ref="C3" r:id="rId1" display="http://47.96.74.65:8080/WoniuBoss4.0/exercise/queryExerByInfo" tooltip="http://47.96.74.65:8080/WoniuBoss4.0/exercise/queryExerByInfo"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://47.96.74.65:8080/WoniuBoss4.0/exercise/addOption"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://47.96.74.65:8080/WoniuBoss4.0/exercise/addBlank"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://47.96.74.65:8080/WoniuBoss4.0/exercise/addShort"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://47.96.74.65:8080/WoniuBoss4.0/problem"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://47.96.74.65:8080/WoniuBoss4.0/problem/replace"/>
+    <hyperlink ref="C9" r:id="rId7" display="http://47.96.74.65:8080/WoniuBoss4.0/paper/downPaper?path=upload/paper/%E5%BC%80%E5%8F%91%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E8%80%83%E8%AF%952020042606.doc&amp;name=%E5%BC%80%E5%8F%91%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E8%80%83%E8%AF%95" tooltip="http://47.96.74.65:8080/WoniuBoss4.0/paper/downPaper?path=upload/paper/%E5%BC%80%E5%8F%91%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E8%80%83%E8%AF%952020042606.doc&amp;name=%E5%BC%80%E5%8F%91%E7%AC%AC%E4%B8%80%E9%98%B6%E6%AE%B5%E8%80%83%E8%AF%95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1292,14 +1710,235 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="76.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="29.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="99" customHeight="1" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="9">
+        <v>200</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="9">
+        <v>200</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="52" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9">
+        <v>200</v>
+      </c>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="60" customHeight="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="9">
+        <v>200</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" ht="99" customHeight="1" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="9">
+        <v>200</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="94" customHeight="1" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="9">
+        <v>200</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="57" customHeight="1" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="9">
+        <v>200</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="98" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="9">
+        <v>200</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://47.96.74.65:8080/WoniuBoss4.0/employ/queryStuByInfo"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://47.96.74.65:8080/WoniuBoss4.0/employ/queryStuByInfo"/>
+    <hyperlink ref="C4" r:id="rId2" display="http://47.96.74.65:8080/WoniuBoss4.0/employ/insertMrecord?stuId=1&amp;salary=1200&amp;comm=01&amp;remark=111111"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://47.96.74.65:8080/WoniuBoss4.0/employ/queryRealRe?stuId=1"/>
+    <hyperlink ref="C6" r:id="rId4" display="http://47.96.74.65:8080/WoniuBoss4.0/entryinfo/queryReByInfo"/>
+    <hyperlink ref="C7" r:id="rId5" display="http://47.96.74.65:8080/WoniuBoss4.0/entryinfo/saveInfo"/>
+    <hyperlink ref="C8" r:id="rId6" display="http://47.96.74.65:8080/WoniuBoss4.0/enterprise/queryEnterprise"/>
+    <hyperlink ref="C9" r:id="rId7" display="http://47.96.74.65:8080/WoniuBoss4.0/enterprise/updateEnterp?ent.enterprise_id=3&amp;ent.ent_name=%E8%85%BE%E8%AE%AF&amp;ent.ent_category=%E4%BA%92%E8%81%94%E7%BD%91&amp;ent.ent_addr=203390&amp;ent.ent_header=%E5%B0%8F%E7%BB%BF&amp;ent.tel=13092993911" tooltip="http://47.96.74.65:8080/WoniuBoss4.0/enterprise/updateEnterp?ent.enterprise_id=3&amp;ent.ent_name=%E8%85%BE%E8%AE%AF&amp;ent.ent_category=%E4%BA%92%E8%81%94%E7%BD%91&amp;ent.ent_addr=203390&amp;ent.ent_header=%E5%B0%8F%E7%BB%BF&amp;ent.tel=13092993911"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1352,19 +1991,19 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A2" s="6" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="F2" s="9">
         <v>200</v>
@@ -1375,71 +2014,71 @@
     </row>
     <row r="3" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A3" s="6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="F3" s="9">
         <v>200</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="F4" s="9">
         <v>200</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="38.25" spans="1:7">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="F5" s="9">
         <v>200</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
